--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H2">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I2">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J2">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.0192629608699</v>
+        <v>62.07563766666667</v>
       </c>
       <c r="N2">
-        <v>60.0192629608699</v>
+        <v>186.226913</v>
       </c>
       <c r="O2">
-        <v>0.4645965709407801</v>
+        <v>0.4556169394345516</v>
       </c>
       <c r="P2">
-        <v>0.4645965709407801</v>
+        <v>0.53808222397892</v>
       </c>
       <c r="Q2">
-        <v>13551.49923625948</v>
+        <v>18714.61476652593</v>
       </c>
       <c r="R2">
-        <v>13551.49923625948</v>
+        <v>168431.5328987334</v>
       </c>
       <c r="S2">
-        <v>0.2471133959303205</v>
+        <v>0.2723561464320198</v>
       </c>
       <c r="T2">
-        <v>0.2471133959303205</v>
+        <v>0.3501470946753548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H3">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I3">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J3">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.71418317261223</v>
+        <v>8.371752000000001</v>
       </c>
       <c r="N3">
-        <v>7.71418317261223</v>
+        <v>25.115256</v>
       </c>
       <c r="O3">
-        <v>0.05971387972460307</v>
+        <v>0.06144619962548196</v>
       </c>
       <c r="P3">
-        <v>0.05971387972460307</v>
+        <v>0.07256777544435759</v>
       </c>
       <c r="Q3">
-        <v>1741.753267449741</v>
+        <v>2523.92274151416</v>
       </c>
       <c r="R3">
-        <v>1741.753267449741</v>
+        <v>22715.30467362744</v>
       </c>
       <c r="S3">
-        <v>0.03176110312876645</v>
+        <v>0.0367309656301593</v>
       </c>
       <c r="T3">
-        <v>0.03176110312876645</v>
+        <v>0.04722214302305367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H4">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I4">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J4">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.301902572283414</v>
+        <v>0.4371553333333333</v>
       </c>
       <c r="N4">
-        <v>0.301902572283414</v>
+        <v>1.311466</v>
       </c>
       <c r="O4">
-        <v>0.002336964716353161</v>
+        <v>0.003208591687778628</v>
       </c>
       <c r="P4">
-        <v>0.002336964716353161</v>
+        <v>0.003789337054374833</v>
       </c>
       <c r="Q4">
-        <v>68.16532352939379</v>
+        <v>131.79395273226</v>
       </c>
       <c r="R4">
-        <v>68.16532352939379</v>
+        <v>1186.14557459034</v>
       </c>
       <c r="S4">
-        <v>0.001243003765735883</v>
+        <v>0.001918013997990803</v>
       </c>
       <c r="T4">
-        <v>0.001243003765735883</v>
+        <v>0.002465841280768633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H5">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I5">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J5">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.19949602196181</v>
+        <v>2.718766</v>
       </c>
       <c r="N5">
-        <v>1.19949602196181</v>
+        <v>8.156298</v>
       </c>
       <c r="O5">
-        <v>0.009285048019064952</v>
+        <v>0.01995494352567695</v>
       </c>
       <c r="P5">
-        <v>0.009285048019064952</v>
+        <v>0.0235667277976885</v>
       </c>
       <c r="Q5">
-        <v>270.8292075514045</v>
+        <v>819.6558302557801</v>
       </c>
       <c r="R5">
-        <v>270.8292075514045</v>
+        <v>7376.90247230202</v>
       </c>
       <c r="S5">
-        <v>0.004938606720064879</v>
+        <v>0.01192855456091457</v>
       </c>
       <c r="T5">
-        <v>0.004938606720064879</v>
+        <v>0.01533561396685132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H6">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I6">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J6">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.9509192552795</v>
+        <v>62.6419255</v>
       </c>
       <c r="N6">
-        <v>59.9509192552795</v>
+        <v>125.283851</v>
       </c>
       <c r="O6">
-        <v>0.4640675365991989</v>
+        <v>0.4597733257265108</v>
       </c>
       <c r="P6">
-        <v>0.4640675365991989</v>
+        <v>0.3619939357246589</v>
       </c>
       <c r="Q6">
-        <v>13536.06819581643</v>
+        <v>18885.33969253817</v>
       </c>
       <c r="R6">
-        <v>13536.06819581643</v>
+        <v>113312.038155229</v>
       </c>
       <c r="S6">
-        <v>0.2468320088498107</v>
+        <v>0.2748407277888187</v>
       </c>
       <c r="T6">
-        <v>0.2468320088498107</v>
+        <v>0.2355608850015682</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H7">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I7">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J7">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.0192629608699</v>
+        <v>62.07563766666667</v>
       </c>
       <c r="N7">
-        <v>60.0192629608699</v>
+        <v>186.226913</v>
       </c>
       <c r="O7">
-        <v>0.4645965709407801</v>
+        <v>0.4556169394345516</v>
       </c>
       <c r="P7">
-        <v>0.4645965709407801</v>
+        <v>0.53808222397892</v>
       </c>
       <c r="Q7">
-        <v>4475.010167810257</v>
+        <v>4866.760554972278</v>
       </c>
       <c r="R7">
-        <v>4475.010167810257</v>
+        <v>43800.8449947505</v>
       </c>
       <c r="S7">
-        <v>0.08160240724003769</v>
+        <v>0.07082657948858566</v>
       </c>
       <c r="T7">
-        <v>0.08160240724003769</v>
+        <v>0.09105621943403197</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H8">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I8">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J8">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.71418317261223</v>
+        <v>8.371752000000001</v>
       </c>
       <c r="N8">
-        <v>7.71418317261223</v>
+        <v>25.115256</v>
       </c>
       <c r="O8">
-        <v>0.05971387972460307</v>
+        <v>0.06144619962548196</v>
       </c>
       <c r="P8">
-        <v>0.05971387972460307</v>
+        <v>0.07256777544435759</v>
       </c>
       <c r="Q8">
-        <v>575.1661455139298</v>
+        <v>656.3494784925681</v>
       </c>
       <c r="R8">
-        <v>575.1661455139298</v>
+        <v>5907.145306433112</v>
       </c>
       <c r="S8">
-        <v>0.01048823137308691</v>
+        <v>0.009551936649780466</v>
       </c>
       <c r="T8">
-        <v>0.01048823137308691</v>
+        <v>0.01228018133704385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H9">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I9">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J9">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.301902572283414</v>
+        <v>0.4371553333333333</v>
       </c>
       <c r="N9">
-        <v>0.301902572283414</v>
+        <v>1.311466</v>
       </c>
       <c r="O9">
-        <v>0.002336964716353161</v>
+        <v>0.003208591687778628</v>
       </c>
       <c r="P9">
-        <v>0.002336964716353161</v>
+        <v>0.003789337054374833</v>
       </c>
       <c r="Q9">
-        <v>22.50972461186597</v>
+        <v>34.27319335947578</v>
       </c>
       <c r="R9">
-        <v>22.50972461186597</v>
+        <v>308.458740235282</v>
       </c>
       <c r="S9">
-        <v>0.0004104678304088424</v>
+        <v>0.0004987821008211498</v>
       </c>
       <c r="T9">
-        <v>0.0004104678304088424</v>
+        <v>0.0006412453170840681</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H10">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I10">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J10">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.19949602196181</v>
+        <v>2.718766</v>
       </c>
       <c r="N10">
-        <v>1.19949602196181</v>
+        <v>8.156298</v>
       </c>
       <c r="O10">
-        <v>0.009285048019064952</v>
+        <v>0.01995494352567695</v>
       </c>
       <c r="P10">
-        <v>0.009285048019064952</v>
+        <v>0.0235667277976885</v>
       </c>
       <c r="Q10">
-        <v>89.4339022128048</v>
+        <v>213.1525929391273</v>
       </c>
       <c r="R10">
-        <v>89.4339022128048</v>
+        <v>1918.373336452146</v>
       </c>
       <c r="S10">
-        <v>0.001630839134608296</v>
+        <v>0.003102036538776714</v>
       </c>
       <c r="T10">
-        <v>0.001630839134608296</v>
+        <v>0.003988046885883546</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H11">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I11">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J11">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.9509192552795</v>
+        <v>62.6419255</v>
       </c>
       <c r="N11">
-        <v>59.9509192552795</v>
+        <v>125.283851</v>
       </c>
       <c r="O11">
-        <v>0.4640675365991989</v>
+        <v>0.4597733257265108</v>
       </c>
       <c r="P11">
-        <v>0.4640675365991989</v>
+        <v>0.3619939357246589</v>
       </c>
       <c r="Q11">
-        <v>4469.914490816985</v>
+        <v>4911.157799907987</v>
       </c>
       <c r="R11">
-        <v>4469.914490816985</v>
+        <v>29466.94679944792</v>
       </c>
       <c r="S11">
-        <v>0.0815094868904573</v>
+        <v>0.07147269818746034</v>
       </c>
       <c r="T11">
-        <v>0.0815094868904573</v>
+        <v>0.06125792263010109</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H12">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I12">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J12">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.0192629608699</v>
+        <v>62.07563766666667</v>
       </c>
       <c r="N12">
-        <v>60.0192629608699</v>
+        <v>186.226913</v>
       </c>
       <c r="O12">
-        <v>0.4645965709407801</v>
+        <v>0.4556169394345516</v>
       </c>
       <c r="P12">
-        <v>0.4645965709407801</v>
+        <v>0.53808222397892</v>
       </c>
       <c r="Q12">
-        <v>29.4437064796572</v>
+        <v>40.68317279773845</v>
       </c>
       <c r="R12">
-        <v>29.4437064796572</v>
+        <v>366.148555179646</v>
       </c>
       <c r="S12">
-        <v>0.0005369099145499412</v>
+        <v>0.0005920673391385496</v>
       </c>
       <c r="T12">
-        <v>0.0005369099145499412</v>
+        <v>0.0007611748857787423</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H13">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I13">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J13">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.71418317261223</v>
+        <v>8.371752000000001</v>
       </c>
       <c r="N13">
-        <v>7.71418317261223</v>
+        <v>25.115256</v>
       </c>
       <c r="O13">
-        <v>0.05971387972460307</v>
+        <v>0.06144619962548196</v>
       </c>
       <c r="P13">
-        <v>0.05971387972460307</v>
+        <v>0.07256777544435759</v>
       </c>
       <c r="Q13">
-        <v>3.784354119989567</v>
+        <v>5.486684406928001</v>
       </c>
       <c r="R13">
-        <v>3.784354119989567</v>
+        <v>49.38015966235201</v>
       </c>
       <c r="S13">
-        <v>6.900820209555263E-05</v>
+        <v>7.984840940634342E-05</v>
       </c>
       <c r="T13">
-        <v>6.900820209555263E-05</v>
+        <v>0.0001026548838142631</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H14">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I14">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J14">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.301902572283414</v>
+        <v>0.4371553333333333</v>
       </c>
       <c r="N14">
-        <v>0.301902572283414</v>
+        <v>1.311466</v>
       </c>
       <c r="O14">
-        <v>0.002336964716353161</v>
+        <v>0.003208591687778628</v>
       </c>
       <c r="P14">
-        <v>0.002336964716353161</v>
+        <v>0.003789337054374833</v>
       </c>
       <c r="Q14">
-        <v>0.1481046298346196</v>
+        <v>0.2865031537968889</v>
       </c>
       <c r="R14">
-        <v>0.1481046298346196</v>
+        <v>2.578528384172</v>
       </c>
       <c r="S14">
-        <v>2.700707677679651E-06</v>
+        <v>4.169516491908327E-06</v>
       </c>
       <c r="T14">
-        <v>2.700707677679651E-06</v>
+        <v>5.360422758834563E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H15">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I15">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J15">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.19949602196181</v>
+        <v>2.718766</v>
       </c>
       <c r="N15">
-        <v>1.19949602196181</v>
+        <v>8.156298</v>
       </c>
       <c r="O15">
-        <v>0.009285048019064952</v>
+        <v>0.01995494352567695</v>
       </c>
       <c r="P15">
-        <v>0.009285048019064952</v>
+        <v>0.0235667277976885</v>
       </c>
       <c r="Q15">
-        <v>0.5884378956333671</v>
+        <v>1.781826673590667</v>
       </c>
       <c r="R15">
-        <v>0.5884378956333671</v>
+        <v>16.036440062316</v>
       </c>
       <c r="S15">
-        <v>1.073024350656197E-05</v>
+        <v>2.59311480617255E-05</v>
       </c>
       <c r="T15">
-        <v>1.073024350656197E-05</v>
+        <v>3.333765833581414E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H16">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I16">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J16">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.9509192552795</v>
+        <v>62.6419255</v>
       </c>
       <c r="N16">
-        <v>59.9509192552795</v>
+        <v>125.283851</v>
       </c>
       <c r="O16">
-        <v>0.4640675365991989</v>
+        <v>0.4597733257265108</v>
       </c>
       <c r="P16">
-        <v>0.4640675365991989</v>
+        <v>0.3619939357246589</v>
       </c>
       <c r="Q16">
-        <v>29.41017904349978</v>
+        <v>41.05430689547367</v>
       </c>
       <c r="R16">
-        <v>29.41017904349978</v>
+        <v>246.325841372842</v>
       </c>
       <c r="S16">
-        <v>0.0005362985372800722</v>
+        <v>0.0005974685004197047</v>
       </c>
       <c r="T16">
-        <v>0.0005362985372800722</v>
+        <v>0.0005120791589067795</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H17">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I17">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J17">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.0192629608699</v>
+        <v>62.07563766666667</v>
       </c>
       <c r="N17">
-        <v>60.0192629608699</v>
+        <v>186.226913</v>
       </c>
       <c r="O17">
-        <v>0.4645965709407801</v>
+        <v>0.4556169394345516</v>
       </c>
       <c r="P17">
-        <v>0.4645965709407801</v>
+        <v>0.53808222397892</v>
       </c>
       <c r="Q17">
-        <v>33.74549385766419</v>
+        <v>41.67458280691278</v>
       </c>
       <c r="R17">
-        <v>33.74549385766419</v>
+        <v>375.071245262215</v>
       </c>
       <c r="S17">
-        <v>0.0006153535811152738</v>
+        <v>0.0006064954539034778</v>
       </c>
       <c r="T17">
-        <v>0.0006153535811152738</v>
+        <v>0.0007797239897103591</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H18">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I18">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J18">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.71418317261223</v>
+        <v>8.371752000000001</v>
       </c>
       <c r="N18">
-        <v>7.71418317261223</v>
+        <v>25.115256</v>
       </c>
       <c r="O18">
-        <v>0.05971387972460307</v>
+        <v>0.06144619962548196</v>
       </c>
       <c r="P18">
-        <v>0.05971387972460307</v>
+        <v>0.07256777544435759</v>
       </c>
       <c r="Q18">
-        <v>4.337256207861128</v>
+        <v>5.620389658120001</v>
       </c>
       <c r="R18">
-        <v>4.337256207861128</v>
+        <v>50.58350692308</v>
       </c>
       <c r="S18">
-        <v>7.909044540818397E-05</v>
+        <v>8.179423877161109E-05</v>
       </c>
       <c r="T18">
-        <v>7.909044540818397E-05</v>
+        <v>0.0001051564851473269</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H19">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I19">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J19">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.301902572283414</v>
+        <v>0.4371553333333333</v>
       </c>
       <c r="N19">
-        <v>0.301902572283414</v>
+        <v>1.311466</v>
       </c>
       <c r="O19">
-        <v>0.002336964716353161</v>
+        <v>0.003208591687778628</v>
       </c>
       <c r="P19">
-        <v>0.002336964716353161</v>
+        <v>0.003789337054374833</v>
       </c>
       <c r="Q19">
-        <v>0.1697430274217967</v>
+        <v>0.2934849616255555</v>
       </c>
       <c r="R19">
-        <v>0.1697430274217967</v>
+        <v>2.64136465463</v>
       </c>
       <c r="S19">
-        <v>3.095286743584813E-06</v>
+        <v>4.271123620832283E-06</v>
       </c>
       <c r="T19">
-        <v>3.095286743584813E-06</v>
+        <v>5.491051134426987E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H20">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I20">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J20">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.19949602196181</v>
+        <v>2.718766</v>
       </c>
       <c r="N20">
-        <v>1.19949602196181</v>
+        <v>8.156298</v>
       </c>
       <c r="O20">
-        <v>0.009285048019064952</v>
+        <v>0.01995494352567695</v>
       </c>
       <c r="P20">
-        <v>0.009285048019064952</v>
+        <v>0.0235667277976885</v>
       </c>
       <c r="Q20">
-        <v>0.6744099084954546</v>
+        <v>1.825248085376667</v>
       </c>
       <c r="R20">
-        <v>0.6744099084954546</v>
+        <v>16.42723276839</v>
       </c>
       <c r="S20">
-        <v>1.229795462714937E-05</v>
+        <v>2.656306533783346E-05</v>
       </c>
       <c r="T20">
-        <v>1.229795462714937E-05</v>
+        <v>3.415006518325642E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H21">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I21">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J21">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>59.9509192552795</v>
+        <v>62.6419255</v>
       </c>
       <c r="N21">
-        <v>59.9509192552795</v>
+        <v>125.283851</v>
       </c>
       <c r="O21">
-        <v>0.4640675365991989</v>
+        <v>0.4597733257265108</v>
       </c>
       <c r="P21">
-        <v>0.4640675365991989</v>
+        <v>0.3619939357246589</v>
       </c>
       <c r="Q21">
-        <v>33.70706799264292</v>
+        <v>42.05476108763417</v>
       </c>
       <c r="R21">
-        <v>33.70706799264292</v>
+        <v>252.328566525805</v>
       </c>
       <c r="S21">
-        <v>0.0006146528803417711</v>
+        <v>0.0006120282363190492</v>
       </c>
       <c r="T21">
-        <v>0.0006146528803417711</v>
+        <v>0.0005245580382251097</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>123.100519684823</v>
+        <v>123.130749</v>
       </c>
       <c r="H22">
-        <v>123.100519684823</v>
+        <v>246.261498</v>
       </c>
       <c r="I22">
-        <v>0.2899903113833569</v>
+        <v>0.2441429215932014</v>
       </c>
       <c r="J22">
-        <v>0.2899903113833569</v>
+        <v>0.1771811198092638</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.0192629608699</v>
+        <v>62.07563766666667</v>
       </c>
       <c r="N22">
-        <v>60.0192629608699</v>
+        <v>186.226913</v>
       </c>
       <c r="O22">
-        <v>0.4645965709407801</v>
+        <v>0.4556169394345516</v>
       </c>
       <c r="P22">
-        <v>0.4645965709407801</v>
+        <v>0.53808222397892</v>
       </c>
       <c r="Q22">
-        <v>7388.402461583133</v>
+        <v>7643.419760549279</v>
       </c>
       <c r="R22">
-        <v>7388.402461583133</v>
+        <v>45860.51856329568</v>
       </c>
       <c r="S22">
-        <v>0.1347285042747567</v>
+        <v>0.1112356507209041</v>
       </c>
       <c r="T22">
-        <v>0.1347285042747567</v>
+        <v>0.09533801099404417</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>123.100519684823</v>
+        <v>123.130749</v>
       </c>
       <c r="H23">
-        <v>123.100519684823</v>
+        <v>246.261498</v>
       </c>
       <c r="I23">
-        <v>0.2899903113833569</v>
+        <v>0.2441429215932014</v>
       </c>
       <c r="J23">
-        <v>0.2899903113833569</v>
+        <v>0.1771811198092638</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.71418317261223</v>
+        <v>8.371752000000001</v>
       </c>
       <c r="N23">
-        <v>7.71418317261223</v>
+        <v>25.115256</v>
       </c>
       <c r="O23">
-        <v>0.05971387972460307</v>
+        <v>0.06144619962548196</v>
       </c>
       <c r="P23">
-        <v>0.05971387972460307</v>
+        <v>0.07256777544435759</v>
       </c>
       <c r="Q23">
-        <v>949.6199574924821</v>
+        <v>1030.820094202248</v>
       </c>
       <c r="R23">
-        <v>949.6199574924821</v>
+        <v>6184.920565213489</v>
       </c>
       <c r="S23">
-        <v>0.01731644657524597</v>
+        <v>0.01500165469736425</v>
       </c>
       <c r="T23">
-        <v>0.01731644657524597</v>
+        <v>0.01285763971529848</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>123.100519684823</v>
+        <v>123.130749</v>
       </c>
       <c r="H24">
-        <v>123.100519684823</v>
+        <v>246.261498</v>
       </c>
       <c r="I24">
-        <v>0.2899903113833569</v>
+        <v>0.2441429215932014</v>
       </c>
       <c r="J24">
-        <v>0.2899903113833569</v>
+        <v>0.1771811198092638</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.301902572283414</v>
+        <v>0.4371553333333333</v>
       </c>
       <c r="N24">
-        <v>0.301902572283414</v>
+        <v>1.311466</v>
       </c>
       <c r="O24">
-        <v>0.002336964716353161</v>
+        <v>0.003208591687778628</v>
       </c>
       <c r="P24">
-        <v>0.002336964716353161</v>
+        <v>0.003789337054374833</v>
       </c>
       <c r="Q24">
-        <v>37.1643635422731</v>
+        <v>53.827263622678</v>
       </c>
       <c r="R24">
-        <v>37.1643635422731</v>
+        <v>322.963581736068</v>
       </c>
       <c r="S24">
-        <v>0.0006776971257871716</v>
+        <v>0.0007833549488539355</v>
       </c>
       <c r="T24">
-        <v>0.0006776971257871716</v>
+        <v>0.0006713989826288703</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>123.100519684823</v>
+        <v>123.130749</v>
       </c>
       <c r="H25">
-        <v>123.100519684823</v>
+        <v>246.261498</v>
       </c>
       <c r="I25">
-        <v>0.2899903113833569</v>
+        <v>0.2441429215932014</v>
       </c>
       <c r="J25">
-        <v>0.2899903113833569</v>
+        <v>0.1771811198092638</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.19949602196181</v>
+        <v>2.718766</v>
       </c>
       <c r="N25">
-        <v>1.19949602196181</v>
+        <v>8.156298</v>
       </c>
       <c r="O25">
-        <v>0.009285048019064952</v>
+        <v>0.01995494352567695</v>
       </c>
       <c r="P25">
-        <v>0.009285048019064952</v>
+        <v>0.0235667277976885</v>
       </c>
       <c r="Q25">
-        <v>147.6585836633767</v>
+        <v>334.763693935734</v>
       </c>
       <c r="R25">
-        <v>147.6585836633767</v>
+        <v>2008.582163614404</v>
       </c>
       <c r="S25">
-        <v>0.002692573966258066</v>
+        <v>0.00487185821258611</v>
       </c>
       <c r="T25">
-        <v>0.002692573966258066</v>
+        <v>0.004175579221434554</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>123.100519684823</v>
+        <v>123.130749</v>
       </c>
       <c r="H26">
-        <v>123.100519684823</v>
+        <v>246.261498</v>
       </c>
       <c r="I26">
-        <v>0.2899903113833569</v>
+        <v>0.2441429215932014</v>
       </c>
       <c r="J26">
-        <v>0.2899903113833569</v>
+        <v>0.1771811198092638</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>59.9509192552795</v>
+        <v>62.6419255</v>
       </c>
       <c r="N26">
-        <v>59.9509192552795</v>
+        <v>125.283851</v>
       </c>
       <c r="O26">
-        <v>0.4640675365991989</v>
+        <v>0.4597733257265108</v>
       </c>
       <c r="P26">
-        <v>0.4640675365991989</v>
+        <v>0.3619939357246589</v>
       </c>
       <c r="Q26">
-        <v>7379.989315907768</v>
+        <v>7713.1472056172</v>
       </c>
       <c r="R26">
-        <v>7379.989315907768</v>
+        <v>30852.5888224688</v>
       </c>
       <c r="S26">
-        <v>0.1345750894413091</v>
+        <v>0.112250403013493</v>
       </c>
       <c r="T26">
-        <v>0.1345750894413091</v>
+        <v>0.06413849089585776</v>
       </c>
     </row>
   </sheetData>
